--- a/「BOOM」(Android版) NFC启动卡购买信息表.xlsx
+++ b/「BOOM」(Android版) NFC启动卡购买信息表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="40">
   <si>
     <t>姓名</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>是否需要NFC卡片覆写软件(NFC Tools Android)*</t>
+  </si>
+  <si>
+    <t>手机号码：</t>
+  </si>
+  <si>
+    <t>QQ：</t>
+  </si>
+  <si>
+    <t>手机号码*：</t>
+  </si>
+  <si>
+    <t>QQ*：</t>
   </si>
 </sst>
 </file>
@@ -165,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -201,13 +213,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,13 +236,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -527,21 +549,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="62">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="10"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="23.050781" style="0"/>
-    <col min="2" max="2" customWidth="1" bestFit="1" width="15.8828125" style="0"/>
-    <col min="3" max="3" customWidth="1" bestFit="1" width="23.53125" style="0"/>
-    <col min="4" max="4" customWidth="1" bestFit="1" width="31.230469" style="0"/>
+    <col min="1" max="1" customWidth="1" width="20.292969" style="0"/>
+    <col min="2" max="2" customWidth="1" width="15.292969" style="0"/>
+    <col min="3" max="3" customWidth="1" width="20.292969" style="0"/>
+    <col min="4" max="4" customWidth="1" width="30.292969" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8" ht="24.55">
+    <row r="1" spans="8:8" ht="25.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -549,7 +571,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="8:8" ht="27.65" customHeight="1">
+    <row r="2" spans="8:8" ht="25.0" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -557,79 +579,92 @@
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="8:8" ht="45.85" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="8:8" ht="25.0" customFormat="1" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8" ht="45.0" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="8:8" ht="20.0">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="8:8" ht="20.0">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="8:8" ht="20.0">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="8:8" ht="20.0">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="8:8" ht="37.45" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="8:8" ht="40.0" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="8:8" ht="32.9" customFormat="1" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="8:8" ht="35.0" customFormat="1" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="8:8" ht="47.25" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="8:8" ht="45.0" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="8:8" ht="19.95">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="8:8" ht="15.0" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:D9"/>
+  <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -637,7 +672,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +686,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
